--- a/R-NLP/goog_nrc.xlsx
+++ b/R-NLP/goog_nrc.xlsx
@@ -446,7 +446,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>44279.95833333333</v>
+        <v>44280.58333333333</v>
       </c>
       <c r="B2">
         <v>-1.078680759397554</v>
@@ -467,7 +467,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>44280</v>
+        <v>44280.625</v>
       </c>
       <c r="B3">
         <v>-1.062923367079402</v>
@@ -488,7 +488,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>44280.04166666667</v>
+        <v>44280.66666666667</v>
       </c>
       <c r="B4">
         <v>-1.204372225455346</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>44280.08333333333</v>
+        <v>44280.70833333333</v>
       </c>
       <c r="B5">
         <v>-1.292981294924423</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>44280.125</v>
+        <v>44280.75</v>
       </c>
       <c r="B6">
         <v>-1.157467720988314</v>
@@ -551,7 +551,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>44280.16666666667</v>
+        <v>44280.79166666667</v>
       </c>
       <c r="B7">
         <v>-1.152267781523325</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>44280.20833333333</v>
+        <v>44280.83333333333</v>
       </c>
       <c r="B8">
         <v>-1.24203239309573</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2">
-        <v>44280.25</v>
+        <v>44280.875</v>
       </c>
       <c r="B9">
         <v>-1.02132385135948</v>
@@ -704,7 +704,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2">
-        <v>44280.29166666667</v>
+        <v>44280.91666666667</v>
       </c>
       <c r="B10">
         <v>-1.069646521135148</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2">
-        <v>44280.33333333333</v>
+        <v>44280.95833333333</v>
       </c>
       <c r="B11">
         <v>-1.069646521135148</v>
@@ -806,7 +806,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2">
-        <v>44280.375</v>
+        <v>44281</v>
       </c>
       <c r="B12">
         <v>-1.069646521135148</v>
@@ -857,7 +857,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2">
-        <v>44280.45833333333</v>
+        <v>44281.08333333333</v>
       </c>
       <c r="B13">
         <v>-1.069646521135148</v>
@@ -908,7 +908,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2">
-        <v>44280.91666666667</v>
+        <v>44281.54166666667</v>
       </c>
       <c r="B14">
         <v>-1.041493313526715</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2">
-        <v>44280.95833333333</v>
+        <v>44281.58333333333</v>
       </c>
       <c r="B15">
         <v>-1.211252953434272</v>
@@ -1010,7 +1010,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2">
-        <v>44281</v>
+        <v>44281.625</v>
       </c>
       <c r="B16">
         <v>-1.115448008139909</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2">
-        <v>44281.04166666667</v>
+        <v>44281.66666666667</v>
       </c>
       <c r="B17">
         <v>-1.112401578958399</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2">
-        <v>44281.08333333333</v>
+        <v>44281.70833333333</v>
       </c>
       <c r="B18">
         <v>-1.169968585560715</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2">
-        <v>44281.125</v>
+        <v>44281.75</v>
       </c>
       <c r="B19">
         <v>-1.200958123786415</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2">
-        <v>44281.16666666667</v>
+        <v>44281.79166666667</v>
       </c>
       <c r="B20">
         <v>-1.150639517650447</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2">
-        <v>44281.20833333333</v>
+        <v>44281.83333333333</v>
       </c>
       <c r="B21">
         <v>-1.350548301526738</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2">
-        <v>44281.25</v>
+        <v>44281.875</v>
       </c>
       <c r="B22">
         <v>-1.292193425308515</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2">
-        <v>44281.29166666667</v>
+        <v>44281.91666666667</v>
       </c>
       <c r="B23">
         <v>-1.156522277449226</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2">
-        <v>44281.33333333333</v>
+        <v>44281.95833333333</v>
       </c>
       <c r="B24">
         <v>-1.164821170736785</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2">
-        <v>44281.375</v>
+        <v>44282</v>
       </c>
       <c r="B25">
         <v>-1.16219493868376</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2">
-        <v>44281.45833333333</v>
+        <v>44282.08333333333</v>
       </c>
       <c r="B26">
         <v>-1.16219493868376</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2">
-        <v>44283.95833333333</v>
+        <v>44284.58333333333</v>
       </c>
       <c r="B27">
         <v>-1.188982505624618</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2">
-        <v>44284</v>
+        <v>44284.625</v>
       </c>
       <c r="B28">
         <v>-1.236674879707558</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2">
-        <v>44284.04166666667</v>
+        <v>44284.66666666667</v>
       </c>
       <c r="B29">
         <v>-1.301805434622587</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2">
-        <v>44284.08333333333</v>
+        <v>44284.70833333333</v>
       </c>
       <c r="B30">
         <v>-1.14465170856955</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2">
-        <v>44284.125</v>
+        <v>44284.75</v>
       </c>
       <c r="B31">
         <v>-1.157677819552556</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2">
-        <v>44284.16666666667</v>
+        <v>44284.79166666667</v>
       </c>
       <c r="B32">
         <v>-0.9821404691283416</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2">
-        <v>44284.20833333333</v>
+        <v>44284.83333333333</v>
       </c>
       <c r="B33">
         <v>-1.026681364747654</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2">
-        <v>44284.25</v>
+        <v>44284.875</v>
       </c>
       <c r="B34">
         <v>-0.9776233499971397</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2">
-        <v>44284.29166666667</v>
+        <v>44284.91666666667</v>
       </c>
       <c r="B35">
         <v>-0.9478944031568937</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2">
-        <v>44284.33333333333</v>
+        <v>44284.95833333333</v>
       </c>
       <c r="B36">
         <v>-0.9478944031568937</v>
@@ -2081,7 +2081,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2">
-        <v>44284.375</v>
+        <v>44285</v>
       </c>
       <c r="B37">
         <v>-0.9478944031568937</v>
@@ -2132,7 +2132,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2">
-        <v>44284.41666666667</v>
+        <v>44285.04166666667</v>
       </c>
       <c r="B38">
         <v>-0.8528248028373743</v>
@@ -2183,7 +2183,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2">
-        <v>44284.45833333333</v>
+        <v>44285.08333333333</v>
       </c>
       <c r="B39">
         <v>-0.9478944031568937</v>
@@ -2234,7 +2234,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2">
-        <v>44284.79166666667</v>
+        <v>44285.41666666667</v>
       </c>
       <c r="B40">
         <v>-0.9053494438978812</v>
@@ -2285,7 +2285,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2">
-        <v>44284.95833333333</v>
+        <v>44285.58333333333</v>
       </c>
       <c r="B41">
         <v>-0.9695345552738218</v>
@@ -2336,7 +2336,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2">
-        <v>44285</v>
+        <v>44285.625</v>
       </c>
       <c r="B42">
         <v>-0.9211068362160332</v>
@@ -2387,7 +2387,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2">
-        <v>44285.04166666667</v>
+        <v>44285.66666666667</v>
       </c>
       <c r="B43">
         <v>-0.9971625164716448</v>
@@ -2438,7 +2438,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2">
-        <v>44285.08333333333</v>
+        <v>44285.70833333333</v>
       </c>
       <c r="B44">
         <v>-0.9034585568197047</v>
@@ -2489,7 +2489,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2">
-        <v>44285.125</v>
+        <v>44285.75</v>
       </c>
       <c r="B45">
         <v>-0.9581051933790535</v>
@@ -2540,7 +2540,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2">
-        <v>44285.16666666667</v>
+        <v>44285.79166666667</v>
       </c>
       <c r="B46">
         <v>-0.957348838547781</v>
@@ -2591,7 +2591,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2">
-        <v>44285.20833333333</v>
+        <v>44285.83333333333</v>
       </c>
       <c r="B47">
         <v>-1.021849097770087</v>
@@ -2642,7 +2642,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2">
-        <v>44285.25</v>
+        <v>44285.875</v>
       </c>
       <c r="B48">
         <v>-0.9132281400569572</v>
@@ -2693,7 +2693,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2">
-        <v>44285.29166666667</v>
+        <v>44285.91666666667</v>
       </c>
       <c r="B49">
         <v>-0.9522014237238536</v>
@@ -2744,7 +2744,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2">
-        <v>44285.33333333333</v>
+        <v>44285.95833333333</v>
       </c>
       <c r="B50">
         <v>-0.9522014237238536</v>
@@ -2795,7 +2795,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2">
-        <v>44285.375</v>
+        <v>44286</v>
       </c>
       <c r="B51">
         <v>-0.9522014237238536</v>
@@ -2846,7 +2846,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2">
-        <v>44285.45833333333</v>
+        <v>44286.08333333333</v>
       </c>
       <c r="B52">
         <v>-0.9522014237238536</v>
@@ -2897,7 +2897,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2">
-        <v>44285.91666666667</v>
+        <v>44286.54166666667</v>
       </c>
       <c r="B53">
         <v>-0.9053494438978812</v>
@@ -2948,7 +2948,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2">
-        <v>44285.95833333333</v>
+        <v>44286.58333333333</v>
       </c>
       <c r="B54">
         <v>-0.8655357659740174</v>
@@ -2999,7 +2999,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2">
-        <v>44286</v>
+        <v>44286.625</v>
       </c>
       <c r="B55">
         <v>-0.926674448168449</v>
@@ -3050,7 +3050,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2">
-        <v>44286.04166666667</v>
+        <v>44286.66666666667</v>
       </c>
       <c r="B56">
         <v>-0.7123739126415801</v>
@@ -3101,7 +3101,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2">
-        <v>44286.08333333333</v>
+        <v>44286.70833333333</v>
       </c>
       <c r="B57">
         <v>-0.7053356107394715</v>
@@ -3152,7 +3152,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2">
-        <v>44286.125</v>
+        <v>44286.75</v>
       </c>
       <c r="B58">
         <v>-0.5796966693227387</v>
@@ -3203,7 +3203,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2">
-        <v>44286.16666666667</v>
+        <v>44286.79166666667</v>
       </c>
       <c r="B59">
         <v>-0.5824279506578873</v>
@@ -3254,7 +3254,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2">
-        <v>44286.20833333333</v>
+        <v>44286.83333333333</v>
       </c>
       <c r="B60">
         <v>-0.6978771117088791</v>
@@ -3305,7 +3305,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2">
-        <v>44286.25</v>
+        <v>44286.875</v>
       </c>
       <c r="B61">
         <v>-0.7197273623900492</v>
@@ -3356,7 +3356,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2">
-        <v>44286.29166666667</v>
+        <v>44286.91666666667</v>
       </c>
       <c r="B62">
         <v>-0.8146919134274452</v>
@@ -3388,7 +3388,7 @@
         <v>22</v>
       </c>
       <c r="K62">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L62">
         <v>11</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2">
-        <v>44286.33333333333</v>
+        <v>44286.95833333333</v>
       </c>
       <c r="B63">
         <v>-0.7897952335647661</v>
@@ -3458,7 +3458,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2">
-        <v>44286.375</v>
+        <v>44287</v>
       </c>
       <c r="B64">
         <v>-0.8146919134274452</v>
@@ -3509,7 +3509,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2">
-        <v>44286.41666666667</v>
+        <v>44287.04166666667</v>
       </c>
       <c r="B65">
         <v>-0.7974638311596003</v>
@@ -3560,7 +3560,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2">
-        <v>44286.45833333333</v>
+        <v>44287.08333333333</v>
       </c>
       <c r="B66">
         <v>-0.8146919134274452</v>
@@ -3611,7 +3611,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2">
-        <v>44286.91666666667</v>
+        <v>44287.54166666667</v>
       </c>
       <c r="B67">
         <v>-0.5902015975348401</v>
@@ -3662,7 +3662,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2">
-        <v>44286.95833333333</v>
+        <v>44287.58333333333</v>
       </c>
       <c r="B68">
         <v>-0.5383072521670588</v>
@@ -3713,7 +3713,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2">
-        <v>44287</v>
+        <v>44287.625</v>
       </c>
       <c r="B69">
         <v>-0.5153014593825562</v>
@@ -3764,7 +3764,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2">
-        <v>44287.04166666667</v>
+        <v>44287.66666666667</v>
       </c>
       <c r="B70">
         <v>-0.355521501276494</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2">
-        <v>44287.08333333333</v>
+        <v>44287.70833333333</v>
       </c>
       <c r="B71">
         <v>-0.2998453817523596</v>
@@ -3866,7 +3866,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2">
-        <v>44287.125</v>
+        <v>44287.75</v>
       </c>
       <c r="B72">
         <v>-0.1932203603995298</v>
@@ -3917,7 +3917,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2">
-        <v>44287.16666666667</v>
+        <v>44287.79166666667</v>
       </c>
       <c r="B73">
         <v>-0.2246300957537105</v>
@@ -3968,7 +3968,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2">
-        <v>44287.20833333333</v>
+        <v>44287.83333333333</v>
       </c>
       <c r="B74">
         <v>-0.1159040887584623</v>
@@ -4019,7 +4019,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2">
-        <v>44287.25</v>
+        <v>44287.875</v>
       </c>
       <c r="B75">
         <v>-0.13922502938933</v>
@@ -4070,7 +4070,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2">
-        <v>44287.29166666667</v>
+        <v>44287.91666666667</v>
       </c>
       <c r="B76">
         <v>-0.08859127540699972</v>
@@ -4087,7 +4087,7 @@
         <v>20</v>
       </c>
       <c r="F76">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G76">
         <v>10</v>
@@ -4096,19 +4096,19 @@
         <v>18</v>
       </c>
       <c r="I76">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J76">
         <v>46</v>
       </c>
       <c r="K76">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L76">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M76">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N76">
         <v>30</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2">
-        <v>44287.33333333333</v>
+        <v>44287.95833333333</v>
       </c>
       <c r="B77">
         <v>-0.08123782565853067</v>
@@ -4172,7 +4172,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2">
-        <v>44287.375</v>
+        <v>44288</v>
       </c>
       <c r="B78">
         <v>-0.08859127540699972</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2">
-        <v>44287.41666666667</v>
+        <v>44288.04166666667</v>
       </c>
       <c r="B79">
         <v>-0.07546011514187302</v>
@@ -4274,7 +4274,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2">
-        <v>44287.45833333333</v>
+        <v>44288.08333333333</v>
       </c>
       <c r="B80">
         <v>-0.08859127540699972</v>
@@ -4325,7 +4325,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2">
-        <v>44290.91666666667</v>
+        <v>44291.54166666667</v>
       </c>
       <c r="B81">
         <v>-0.04394533050556891</v>
@@ -4376,7 +4376,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2">
-        <v>44290.95833333333</v>
+        <v>44291.58333333333</v>
       </c>
       <c r="B82">
         <v>-0.04688671040495939</v>
@@ -4427,7 +4427,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2">
-        <v>44291</v>
+        <v>44291.625</v>
       </c>
       <c r="B83">
         <v>0.07255432336663681</v>
@@ -4478,7 +4478,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2">
-        <v>44291.04166666667</v>
+        <v>44291.66666666667</v>
       </c>
       <c r="B84">
         <v>0.5587224010226854</v>
@@ -4529,7 +4529,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2">
-        <v>44291.08333333333</v>
+        <v>44291.70833333333</v>
       </c>
       <c r="B85">
         <v>0.6749594316895877</v>
@@ -4580,7 +4580,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2">
-        <v>44291.125</v>
+        <v>44291.75</v>
       </c>
       <c r="B86">
         <v>0.8364727029506462</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2">
-        <v>44291.16666666667</v>
+        <v>44291.79166666667</v>
       </c>
       <c r="B87">
         <v>0.9074545028798159</v>
@@ -4682,7 +4682,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2">
-        <v>44291.20833333333</v>
+        <v>44291.83333333333</v>
       </c>
       <c r="B88">
         <v>0.8601087914278743</v>
@@ -4733,7 +4733,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2">
-        <v>44291.25</v>
+        <v>44291.875</v>
       </c>
       <c r="B89">
         <v>0.7901459695352807</v>
@@ -4784,7 +4784,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2">
-        <v>44291.29166666667</v>
+        <v>44291.91666666667</v>
       </c>
       <c r="B90">
         <v>0.8337414216155024</v>
@@ -4835,7 +4835,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2">
-        <v>44291.33333333333</v>
+        <v>44291.95833333333</v>
       </c>
       <c r="B91">
         <v>0.8337414216155024</v>
@@ -4886,7 +4886,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2">
-        <v>44291.375</v>
+        <v>44292</v>
       </c>
       <c r="B92">
         <v>0.8542260316290982</v>
@@ -4937,7 +4937,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2">
-        <v>44291.41666666667</v>
+        <v>44292.04166666667</v>
       </c>
       <c r="B93">
         <v>0.8698783746651269</v>
@@ -4988,7 +4988,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2">
-        <v>44291.45833333333</v>
+        <v>44292.08333333333</v>
       </c>
       <c r="B94">
         <v>0.8337414216155024</v>
@@ -5039,7 +5039,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2">
-        <v>44291.83333333333</v>
+        <v>44292.45833333333</v>
       </c>
       <c r="B95">
         <v>0.7544292136141352</v>
@@ -5090,7 +5090,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2">
-        <v>44291.91666666667</v>
+        <v>44292.54166666667</v>
       </c>
       <c r="B96">
         <v>0.7920368566134572</v>
@@ -5141,7 +5141,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2">
-        <v>44291.95833333333</v>
+        <v>44292.58333333333</v>
       </c>
       <c r="B97">
         <v>0.8337414216155024</v>
@@ -5192,7 +5192,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2">
-        <v>44292</v>
+        <v>44292.625</v>
       </c>
       <c r="B98">
         <v>0.7754390700383379</v>
@@ -5243,7 +5243,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2">
-        <v>44292.04166666667</v>
+        <v>44292.66666666667</v>
       </c>
       <c r="B99">
         <v>0.8555916722966724</v>
@@ -5294,7 +5294,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2">
-        <v>44292.08333333333</v>
+        <v>44292.70833333333</v>
       </c>
       <c r="B100">
         <v>0.7875197374822553</v>
@@ -5345,7 +5345,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2">
-        <v>44292.125</v>
+        <v>44292.75</v>
       </c>
       <c r="B101">
         <v>0.8704036210757339</v>
@@ -5396,7 +5396,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2">
-        <v>44292.16666666667</v>
+        <v>44292.79166666667</v>
       </c>
       <c r="B102">
         <v>0.7996109098543824</v>
@@ -5447,7 +5447,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2">
-        <v>44292.20833333333</v>
+        <v>44292.83333333333</v>
       </c>
       <c r="B103">
         <v>0.8163032407834109</v>
@@ -5498,7 +5498,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2">
-        <v>44292.25</v>
+        <v>44292.875</v>
       </c>
       <c r="B104">
         <v>0.8795744234048989</v>
@@ -5549,7 +5549,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2">
-        <v>44292.29166666667</v>
+        <v>44292.91666666667</v>
       </c>
       <c r="B105">
         <v>0.8253374790458193</v>
@@ -5600,7 +5600,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2">
-        <v>44292.33333333333</v>
+        <v>44292.95833333333</v>
       </c>
       <c r="B106">
         <v>0.8253374790458193</v>
@@ -5651,7 +5651,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2">
-        <v>44292.375</v>
+        <v>44293</v>
       </c>
       <c r="B107">
         <v>0.8253374790458193</v>
@@ -5702,7 +5702,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2">
-        <v>44292.45833333333</v>
+        <v>44293.08333333333</v>
       </c>
       <c r="B108">
         <v>0.8253374790458193</v>
@@ -5753,7 +5753,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2">
-        <v>44292.91666666667</v>
+        <v>44293.54166666667</v>
       </c>
       <c r="B109">
         <v>0.9330129932198584</v>
@@ -5804,7 +5804,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2">
-        <v>44293</v>
+        <v>44293.625</v>
       </c>
       <c r="B110">
         <v>0.8279637110988447</v>
@@ -5855,7 +5855,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2">
-        <v>44293.04166666667</v>
+        <v>44293.66666666667</v>
       </c>
       <c r="B111">
         <v>0.9411017879431762</v>
@@ -5906,7 +5906,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2">
-        <v>44293.08333333333</v>
+        <v>44293.70833333333</v>
       </c>
       <c r="B112">
         <v>0.9685196505767621</v>
@@ -5957,7 +5957,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2">
-        <v>44293.125</v>
+        <v>44293.75</v>
       </c>
       <c r="B113">
         <v>0.9866931763836977</v>
@@ -6008,7 +6008,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2">
-        <v>44293.16666666667</v>
+        <v>44293.79166666667</v>
       </c>
       <c r="B114">
         <v>1.039112768162081</v>
@@ -6059,7 +6059,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2">
-        <v>44293.20833333333</v>
+        <v>44293.83333333333</v>
       </c>
       <c r="B115">
         <v>1.117899729752841</v>
@@ -6110,7 +6110,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2">
-        <v>44293.25</v>
+        <v>44293.875</v>
       </c>
       <c r="B116">
         <v>1.040972140455625</v>
@@ -6161,7 +6161,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2">
-        <v>44293.29166666667</v>
+        <v>44293.91666666667</v>
       </c>
       <c r="B117">
         <v>1.088275832194719</v>
@@ -6212,7 +6212,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2">
-        <v>44293.33333333333</v>
+        <v>44293.95833333333</v>
       </c>
       <c r="B118">
         <v>1.087225339373505</v>
@@ -6263,7 +6263,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2">
-        <v>44293.375</v>
+        <v>44294</v>
       </c>
       <c r="B119">
         <v>1.143006508179762</v>
@@ -6314,7 +6314,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2">
-        <v>44293.45833333333</v>
+        <v>44294.08333333333</v>
       </c>
       <c r="B120">
         <v>1.087225339373505</v>
@@ -6365,7 +6365,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2">
-        <v>44293.875</v>
+        <v>44294.5</v>
       </c>
       <c r="B121">
         <v>1.27326761800982</v>
@@ -6416,7 +6416,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2">
-        <v>44293.91666666667</v>
+        <v>44294.54166666667</v>
       </c>
       <c r="B122">
         <v>1.313186345215807</v>
@@ -6467,7 +6467,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2">
-        <v>44293.95833333333</v>
+        <v>44294.58333333333</v>
       </c>
       <c r="B123">
         <v>1.248160839582899</v>
@@ -6518,7 +6518,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2">
-        <v>44294</v>
+        <v>44294.625</v>
       </c>
       <c r="B124">
         <v>1.437249547400724</v>
@@ -6569,7 +6569,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2">
-        <v>44294.04166666667</v>
+        <v>44294.66666666667</v>
       </c>
       <c r="B125">
         <v>1.246795198915325</v>
@@ -6620,7 +6620,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2">
-        <v>44294.08333333333</v>
+        <v>44294.70833333333</v>
       </c>
       <c r="B126">
         <v>1.232876169034293</v>
@@ -6671,7 +6671,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2">
-        <v>44294.125</v>
+        <v>44294.75</v>
       </c>
       <c r="B127">
         <v>1.242383129066242</v>
@@ -6722,7 +6722,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2">
-        <v>44294.16666666667</v>
+        <v>44294.79166666667</v>
       </c>
       <c r="B128">
         <v>1.216225857818112</v>
@@ -6773,7 +6773,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2">
-        <v>44294.20833333333</v>
+        <v>44294.83333333333</v>
       </c>
       <c r="B129">
         <v>1.256669831434701</v>
@@ -6824,7 +6824,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2">
-        <v>44294.25</v>
+        <v>44294.875</v>
       </c>
       <c r="B130">
         <v>1.225995441055364</v>
@@ -6875,7 +6875,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2">
-        <v>44294.29166666667</v>
+        <v>44294.91666666667</v>
       </c>
       <c r="B131">
         <v>1.254148648663799</v>
@@ -6926,7 +6926,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2">
-        <v>44294.33333333333</v>
+        <v>44294.95833333333</v>
       </c>
       <c r="B132">
         <v>1.265283872568626</v>
@@ -6977,7 +6977,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2">
-        <v>44294.375</v>
+        <v>44295</v>
       </c>
       <c r="B133">
         <v>1.252783007996225</v>
@@ -7028,7 +7028,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2">
-        <v>44294.41666666667</v>
+        <v>44295.04166666667</v>
       </c>
       <c r="B134">
         <v>1.290180552431305</v>
@@ -7079,7 +7079,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2">
-        <v>44294.45833333333</v>
+        <v>44295.08333333333</v>
       </c>
       <c r="B135">
         <v>1.252783007996225</v>
@@ -7130,7 +7130,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2">
-        <v>44294.91666666667</v>
+        <v>44295.54166666667</v>
       </c>
       <c r="B136">
         <v>1.279675624219204</v>
@@ -7181,7 +7181,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2">
-        <v>44294.95833333333</v>
+        <v>44295.58333333333</v>
       </c>
       <c r="B137">
         <v>1.225049997516278</v>
@@ -7232,7 +7232,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2">
-        <v>44295</v>
+        <v>44295.625</v>
       </c>
       <c r="B138">
         <v>1.079556741778671</v>
@@ -7283,7 +7283,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2">
-        <v>44295.04166666667</v>
+        <v>44295.66666666667</v>
       </c>
       <c r="B139">
         <v>1.220637927667195</v>
@@ -7334,7 +7334,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2">
-        <v>44295.08333333333</v>
+        <v>44295.70833333333</v>
       </c>
       <c r="B140">
         <v>1.260294031667879</v>
@@ -7385,7 +7385,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2">
-        <v>44295.125</v>
+        <v>44295.75</v>
       </c>
       <c r="B141">
         <v>1.309246997136269</v>
@@ -7436,7 +7436,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2">
-        <v>44295.16666666667</v>
+        <v>44295.79166666667</v>
       </c>
       <c r="B142">
         <v>1.355521205910573</v>
@@ -7487,7 +7487,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2">
-        <v>44295.20833333333</v>
+        <v>44295.83333333333</v>
       </c>
       <c r="B143">
         <v>1.379262343669925</v>
@@ -7538,7 +7538,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2">
-        <v>44295.25</v>
+        <v>44295.875</v>
       </c>
       <c r="B144">
         <v>1.382991593185221</v>
@@ -7589,7 +7589,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2">
-        <v>44295.29166666667</v>
+        <v>44295.91666666667</v>
       </c>
       <c r="B145">
         <v>1.454162481822209</v>
@@ -7640,7 +7640,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2">
-        <v>44295.33333333333</v>
+        <v>44295.95833333333</v>
       </c>
       <c r="B146">
         <v>1.467503740651577</v>
@@ -7691,7 +7691,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2">
-        <v>44295.375</v>
+        <v>44296</v>
       </c>
       <c r="B147">
         <v>1.467503740651577</v>
@@ -7742,7 +7742,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2">
-        <v>44295.45833333333</v>
+        <v>44296.08333333333</v>
       </c>
       <c r="B148">
         <v>1.467503740651577</v>
@@ -7793,7 +7793,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2">
-        <v>44280.41666666667</v>
+        <v>44281.04166666667</v>
       </c>
       <c r="C149" s="3">
         <v>44280</v>
@@ -7841,7 +7841,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2">
-        <v>44280.5</v>
+        <v>44281.125</v>
       </c>
       <c r="C150" s="3">
         <v>44280</v>
@@ -7889,7 +7889,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2">
-        <v>44280.54166666667</v>
+        <v>44281.16666666667</v>
       </c>
       <c r="C151" s="3">
         <v>44280</v>
@@ -7937,7 +7937,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2">
-        <v>44280.58333333333</v>
+        <v>44281.20833333333</v>
       </c>
       <c r="C152" s="3">
         <v>44280</v>
@@ -7985,7 +7985,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2">
-        <v>44280.625</v>
+        <v>44281.25</v>
       </c>
       <c r="C153" s="3">
         <v>44280</v>
@@ -8033,7 +8033,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2">
-        <v>44280.66666666667</v>
+        <v>44281.29166666667</v>
       </c>
       <c r="C154" s="3">
         <v>44281</v>
@@ -8081,7 +8081,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2">
-        <v>44280.70833333333</v>
+        <v>44281.33333333333</v>
       </c>
       <c r="C155" s="3">
         <v>44281</v>
@@ -8129,7 +8129,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2">
-        <v>44280.75</v>
+        <v>44281.375</v>
       </c>
       <c r="C156" s="3">
         <v>44281</v>
@@ -8177,7 +8177,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2">
-        <v>44280.79166666667</v>
+        <v>44281.41666666667</v>
       </c>
       <c r="C157" s="3">
         <v>44281</v>
@@ -8225,7 +8225,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2">
-        <v>44280.83333333333</v>
+        <v>44281.45833333333</v>
       </c>
       <c r="C158" s="3">
         <v>44281</v>
@@ -8273,7 +8273,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2">
-        <v>44280.875</v>
+        <v>44281.5</v>
       </c>
       <c r="C159" s="3">
         <v>44281</v>
@@ -8321,7 +8321,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2">
-        <v>44281.41666666667</v>
+        <v>44282.04166666667</v>
       </c>
       <c r="C160" s="3">
         <v>44281</v>
@@ -8369,7 +8369,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2">
-        <v>44281.5</v>
+        <v>44282.125</v>
       </c>
       <c r="C161" s="3">
         <v>44281</v>
@@ -8417,7 +8417,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2">
-        <v>44281.54166666667</v>
+        <v>44282.16666666667</v>
       </c>
       <c r="C162" s="3">
         <v>44281</v>
@@ -8465,7 +8465,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2">
-        <v>44281.58333333333</v>
+        <v>44282.20833333333</v>
       </c>
       <c r="C163" s="3">
         <v>44281</v>
@@ -8513,7 +8513,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2">
-        <v>44281.625</v>
+        <v>44282.25</v>
       </c>
       <c r="C164" s="3">
         <v>44281</v>
@@ -8561,7 +8561,7 @@
     </row>
     <row r="165">
       <c r="A165" s="2">
-        <v>44281.66666666667</v>
+        <v>44282.29166666667</v>
       </c>
       <c r="C165" s="3">
         <v>44282</v>
@@ -8609,7 +8609,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2">
-        <v>44281.70833333333</v>
+        <v>44282.33333333333</v>
       </c>
       <c r="C166" s="3">
         <v>44282</v>
@@ -8657,7 +8657,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2">
-        <v>44281.75</v>
+        <v>44282.375</v>
       </c>
       <c r="C167" s="3">
         <v>44282</v>
@@ -8705,7 +8705,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2">
-        <v>44281.79166666667</v>
+        <v>44282.41666666667</v>
       </c>
       <c r="C168" s="3">
         <v>44282</v>
@@ -8753,7 +8753,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2">
-        <v>44281.83333333333</v>
+        <v>44282.45833333333</v>
       </c>
       <c r="C169" s="3">
         <v>44282</v>
@@ -8801,7 +8801,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2">
-        <v>44281.875</v>
+        <v>44282.5</v>
       </c>
       <c r="C170" s="3">
         <v>44282</v>
@@ -8849,7 +8849,7 @@
     </row>
     <row r="171">
       <c r="A171" s="2">
-        <v>44281.91666666667</v>
+        <v>44282.54166666667</v>
       </c>
       <c r="C171" s="3">
         <v>44282</v>
@@ -8897,7 +8897,7 @@
     </row>
     <row r="172">
       <c r="A172" s="2">
-        <v>44281.95833333333</v>
+        <v>44282.58333333333</v>
       </c>
       <c r="C172" s="3">
         <v>44282</v>
@@ -8945,7 +8945,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2">
-        <v>44282</v>
+        <v>44282.625</v>
       </c>
       <c r="C173" s="3">
         <v>44282</v>
@@ -8993,7 +8993,7 @@
     </row>
     <row r="174">
       <c r="A174" s="2">
-        <v>44282.04166666667</v>
+        <v>44282.66666666667</v>
       </c>
       <c r="C174" s="3">
         <v>44282</v>
@@ -9041,7 +9041,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2">
-        <v>44282.08333333333</v>
+        <v>44282.70833333333</v>
       </c>
       <c r="C175" s="3">
         <v>44282</v>
@@ -9089,7 +9089,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2">
-        <v>44282.125</v>
+        <v>44282.75</v>
       </c>
       <c r="C176" s="3">
         <v>44282</v>
@@ -9137,7 +9137,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2">
-        <v>44282.16666666667</v>
+        <v>44282.79166666667</v>
       </c>
       <c r="C177" s="3">
         <v>44282</v>
@@ -9185,7 +9185,7 @@
     </row>
     <row r="178">
       <c r="A178" s="2">
-        <v>44282.20833333333</v>
+        <v>44282.83333333333</v>
       </c>
       <c r="C178" s="3">
         <v>44282</v>
@@ -9233,7 +9233,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2">
-        <v>44282.25</v>
+        <v>44282.875</v>
       </c>
       <c r="C179" s="3">
         <v>44282</v>
@@ -9281,7 +9281,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2">
-        <v>44282.29166666667</v>
+        <v>44282.91666666667</v>
       </c>
       <c r="C180" s="3">
         <v>44282</v>
@@ -9329,7 +9329,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2">
-        <v>44282.33333333333</v>
+        <v>44282.95833333333</v>
       </c>
       <c r="C181" s="3">
         <v>44282</v>
@@ -9377,7 +9377,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2">
-        <v>44282.375</v>
+        <v>44283</v>
       </c>
       <c r="C182" s="3">
         <v>44282</v>
@@ -9425,7 +9425,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2">
-        <v>44282.41666666667</v>
+        <v>44283.04166666667</v>
       </c>
       <c r="C183" s="3">
         <v>44282</v>
@@ -9473,7 +9473,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2">
-        <v>44282.45833333333</v>
+        <v>44283.08333333333</v>
       </c>
       <c r="C184" s="3">
         <v>44282</v>
@@ -9521,7 +9521,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2">
-        <v>44282.5</v>
+        <v>44283.125</v>
       </c>
       <c r="C185" s="3">
         <v>44282</v>
@@ -9569,7 +9569,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2">
-        <v>44282.54166666667</v>
+        <v>44283.16666666667</v>
       </c>
       <c r="C186" s="3">
         <v>44282</v>
@@ -9617,7 +9617,7 @@
     </row>
     <row r="187">
       <c r="A187" s="2">
-        <v>44282.58333333333</v>
+        <v>44283.20833333333</v>
       </c>
       <c r="C187" s="3">
         <v>44282</v>
@@ -9665,7 +9665,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2">
-        <v>44282.625</v>
+        <v>44283.25</v>
       </c>
       <c r="C188" s="3">
         <v>44282</v>
@@ -9713,7 +9713,7 @@
     </row>
     <row r="189">
       <c r="A189" s="2">
-        <v>44282.66666666667</v>
+        <v>44283.29166666667</v>
       </c>
       <c r="C189" s="3">
         <v>44283</v>
@@ -9761,7 +9761,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2">
-        <v>44282.70833333333</v>
+        <v>44283.33333333333</v>
       </c>
       <c r="C190" s="3">
         <v>44283</v>
@@ -9809,7 +9809,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2">
-        <v>44282.75</v>
+        <v>44283.375</v>
       </c>
       <c r="C191" s="3">
         <v>44283</v>
@@ -9857,7 +9857,7 @@
     </row>
     <row r="192">
       <c r="A192" s="2">
-        <v>44282.79166666667</v>
+        <v>44283.41666666667</v>
       </c>
       <c r="C192" s="3">
         <v>44283</v>
@@ -9905,7 +9905,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2">
-        <v>44282.83333333333</v>
+        <v>44283.45833333333</v>
       </c>
       <c r="C193" s="3">
         <v>44283</v>
@@ -9953,7 +9953,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2">
-        <v>44282.875</v>
+        <v>44283.5</v>
       </c>
       <c r="C194" s="3">
         <v>44283</v>
@@ -10001,7 +10001,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2">
-        <v>44282.91666666667</v>
+        <v>44283.54166666667</v>
       </c>
       <c r="C195" s="3">
         <v>44283</v>
@@ -10049,7 +10049,7 @@
     </row>
     <row r="196">
       <c r="A196" s="2">
-        <v>44282.95833333333</v>
+        <v>44283.58333333333</v>
       </c>
       <c r="C196" s="3">
         <v>44283</v>
@@ -10097,7 +10097,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2">
-        <v>44283</v>
+        <v>44283.625</v>
       </c>
       <c r="C197" s="3">
         <v>44283</v>
@@ -10145,7 +10145,7 @@
     </row>
     <row r="198">
       <c r="A198" s="2">
-        <v>44283.04166666667</v>
+        <v>44283.66666666667</v>
       </c>
       <c r="C198" s="3">
         <v>44283</v>
@@ -10193,7 +10193,7 @@
     </row>
     <row r="199">
       <c r="A199" s="2">
-        <v>44283.08333333333</v>
+        <v>44283.70833333333</v>
       </c>
       <c r="C199" s="3">
         <v>44283</v>
@@ -10241,7 +10241,7 @@
     </row>
     <row r="200">
       <c r="A200" s="2">
-        <v>44283.125</v>
+        <v>44283.75</v>
       </c>
       <c r="C200" s="3">
         <v>44283</v>
@@ -10289,7 +10289,7 @@
     </row>
     <row r="201">
       <c r="A201" s="2">
-        <v>44283.16666666667</v>
+        <v>44283.79166666667</v>
       </c>
       <c r="C201" s="3">
         <v>44283</v>
@@ -10337,7 +10337,7 @@
     </row>
     <row r="202">
       <c r="A202" s="2">
-        <v>44283.20833333333</v>
+        <v>44283.83333333333</v>
       </c>
       <c r="C202" s="3">
         <v>44283</v>
@@ -10385,7 +10385,7 @@
     </row>
     <row r="203">
       <c r="A203" s="2">
-        <v>44283.25</v>
+        <v>44283.875</v>
       </c>
       <c r="C203" s="3">
         <v>44283</v>
@@ -10433,7 +10433,7 @@
     </row>
     <row r="204">
       <c r="A204" s="2">
-        <v>44283.29166666667</v>
+        <v>44283.91666666667</v>
       </c>
       <c r="C204" s="3">
         <v>44283</v>
@@ -10481,7 +10481,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2">
-        <v>44283.33333333333</v>
+        <v>44283.95833333333</v>
       </c>
       <c r="C205" s="3">
         <v>44283</v>
@@ -10529,7 +10529,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2">
-        <v>44283.375</v>
+        <v>44284</v>
       </c>
       <c r="C206" s="3">
         <v>44283</v>
@@ -10577,7 +10577,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2">
-        <v>44283.41666666667</v>
+        <v>44284.04166666667</v>
       </c>
       <c r="C207" s="3">
         <v>44283</v>
@@ -10625,7 +10625,7 @@
     </row>
     <row r="208">
       <c r="A208" s="2">
-        <v>44283.45833333333</v>
+        <v>44284.08333333333</v>
       </c>
       <c r="C208" s="3">
         <v>44283</v>
@@ -10673,7 +10673,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2">
-        <v>44283.5</v>
+        <v>44284.125</v>
       </c>
       <c r="C209" s="3">
         <v>44283</v>
@@ -10721,7 +10721,7 @@
     </row>
     <row r="210">
       <c r="A210" s="2">
-        <v>44283.54166666667</v>
+        <v>44284.16666666667</v>
       </c>
       <c r="C210" s="3">
         <v>44283</v>
@@ -10769,7 +10769,7 @@
     </row>
     <row r="211">
       <c r="A211" s="2">
-        <v>44283.58333333333</v>
+        <v>44284.20833333333</v>
       </c>
       <c r="C211" s="3">
         <v>44283</v>
@@ -10817,7 +10817,7 @@
     </row>
     <row r="212">
       <c r="A212" s="2">
-        <v>44283.625</v>
+        <v>44284.25</v>
       </c>
       <c r="C212" s="3">
         <v>44283</v>
@@ -10865,7 +10865,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2">
-        <v>44283.66666666667</v>
+        <v>44284.29166666667</v>
       </c>
       <c r="C213" s="3">
         <v>44284</v>
@@ -10913,7 +10913,7 @@
     </row>
     <row r="214">
       <c r="A214" s="2">
-        <v>44283.70833333333</v>
+        <v>44284.33333333333</v>
       </c>
       <c r="C214" s="3">
         <v>44284</v>
@@ -10961,7 +10961,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2">
-        <v>44283.75</v>
+        <v>44284.375</v>
       </c>
       <c r="C215" s="3">
         <v>44284</v>
@@ -11009,7 +11009,7 @@
     </row>
     <row r="216">
       <c r="A216" s="2">
-        <v>44283.79166666667</v>
+        <v>44284.41666666667</v>
       </c>
       <c r="C216" s="3">
         <v>44284</v>
@@ -11057,7 +11057,7 @@
     </row>
     <row r="217">
       <c r="A217" s="2">
-        <v>44283.83333333333</v>
+        <v>44284.45833333333</v>
       </c>
       <c r="C217" s="3">
         <v>44284</v>
@@ -11105,7 +11105,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2">
-        <v>44283.875</v>
+        <v>44284.5</v>
       </c>
       <c r="C218" s="3">
         <v>44284</v>
@@ -11153,7 +11153,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2">
-        <v>44283.91666666667</v>
+        <v>44284.54166666667</v>
       </c>
       <c r="C219" s="3">
         <v>44284</v>
@@ -11201,7 +11201,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2">
-        <v>44284.5</v>
+        <v>44285.125</v>
       </c>
       <c r="C220" s="3">
         <v>44284</v>
@@ -11249,7 +11249,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2">
-        <v>44284.54166666667</v>
+        <v>44285.16666666667</v>
       </c>
       <c r="C221" s="3">
         <v>44284</v>
@@ -11297,7 +11297,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2">
-        <v>44284.58333333333</v>
+        <v>44285.20833333333</v>
       </c>
       <c r="C222" s="3">
         <v>44284</v>
@@ -11345,7 +11345,7 @@
     </row>
     <row r="223">
       <c r="A223" s="2">
-        <v>44284.625</v>
+        <v>44285.25</v>
       </c>
       <c r="C223" s="3">
         <v>44284</v>
@@ -11393,7 +11393,7 @@
     </row>
     <row r="224">
       <c r="A224" s="2">
-        <v>44284.66666666667</v>
+        <v>44285.29166666667</v>
       </c>
       <c r="C224" s="3">
         <v>44285</v>
@@ -11441,7 +11441,7 @@
     </row>
     <row r="225">
       <c r="A225" s="2">
-        <v>44284.70833333333</v>
+        <v>44285.33333333333</v>
       </c>
       <c r="C225" s="3">
         <v>44285</v>
@@ -11489,7 +11489,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2">
-        <v>44284.75</v>
+        <v>44285.375</v>
       </c>
       <c r="C226" s="3">
         <v>44285</v>
@@ -11537,7 +11537,7 @@
     </row>
     <row r="227">
       <c r="A227" s="2">
-        <v>44284.83333333333</v>
+        <v>44285.45833333333</v>
       </c>
       <c r="C227" s="3">
         <v>44285</v>
@@ -11585,7 +11585,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2">
-        <v>44284.875</v>
+        <v>44285.5</v>
       </c>
       <c r="C228" s="3">
         <v>44285</v>
@@ -11633,7 +11633,7 @@
     </row>
     <row r="229">
       <c r="A229" s="2">
-        <v>44284.91666666667</v>
+        <v>44285.54166666667</v>
       </c>
       <c r="C229" s="3">
         <v>44285</v>
@@ -11681,7 +11681,7 @@
     </row>
     <row r="230">
       <c r="A230" s="2">
-        <v>44285.41666666667</v>
+        <v>44286.04166666667</v>
       </c>
       <c r="C230" s="3">
         <v>44285</v>
@@ -11729,7 +11729,7 @@
     </row>
     <row r="231">
       <c r="A231" s="2">
-        <v>44285.5</v>
+        <v>44286.125</v>
       </c>
       <c r="C231" s="3">
         <v>44285</v>
@@ -11777,7 +11777,7 @@
     </row>
     <row r="232">
       <c r="A232" s="2">
-        <v>44285.54166666667</v>
+        <v>44286.16666666667</v>
       </c>
       <c r="C232" s="3">
         <v>44285</v>
@@ -11825,7 +11825,7 @@
     </row>
     <row r="233">
       <c r="A233" s="2">
-        <v>44285.58333333333</v>
+        <v>44286.20833333333</v>
       </c>
       <c r="C233" s="3">
         <v>44285</v>
@@ -11873,7 +11873,7 @@
     </row>
     <row r="234">
       <c r="A234" s="2">
-        <v>44285.625</v>
+        <v>44286.25</v>
       </c>
       <c r="C234" s="3">
         <v>44285</v>
@@ -11921,7 +11921,7 @@
     </row>
     <row r="235">
       <c r="A235" s="2">
-        <v>44285.66666666667</v>
+        <v>44286.29166666667</v>
       </c>
       <c r="C235" s="3">
         <v>44286</v>
@@ -11969,7 +11969,7 @@
     </row>
     <row r="236">
       <c r="A236" s="2">
-        <v>44285.70833333333</v>
+        <v>44286.33333333333</v>
       </c>
       <c r="C236" s="3">
         <v>44286</v>
@@ -12017,7 +12017,7 @@
     </row>
     <row r="237">
       <c r="A237" s="2">
-        <v>44285.75</v>
+        <v>44286.375</v>
       </c>
       <c r="C237" s="3">
         <v>44286</v>
@@ -12065,7 +12065,7 @@
     </row>
     <row r="238">
       <c r="A238" s="2">
-        <v>44285.79166666667</v>
+        <v>44286.41666666667</v>
       </c>
       <c r="C238" s="3">
         <v>44286</v>
@@ -12113,7 +12113,7 @@
     </row>
     <row r="239">
       <c r="A239" s="2">
-        <v>44285.83333333333</v>
+        <v>44286.45833333333</v>
       </c>
       <c r="C239" s="3">
         <v>44286</v>
@@ -12161,7 +12161,7 @@
     </row>
     <row r="240">
       <c r="A240" s="2">
-        <v>44285.875</v>
+        <v>44286.5</v>
       </c>
       <c r="C240" s="3">
         <v>44286</v>
@@ -12209,7 +12209,7 @@
     </row>
     <row r="241">
       <c r="A241" s="2">
-        <v>44286.5</v>
+        <v>44287.125</v>
       </c>
       <c r="C241" s="3">
         <v>44286</v>
@@ -12257,7 +12257,7 @@
     </row>
     <row r="242">
       <c r="A242" s="2">
-        <v>44286.54166666667</v>
+        <v>44287.16666666667</v>
       </c>
       <c r="C242" s="3">
         <v>44286</v>
@@ -12305,7 +12305,7 @@
     </row>
     <row r="243">
       <c r="A243" s="2">
-        <v>44286.58333333333</v>
+        <v>44287.20833333333</v>
       </c>
       <c r="C243" s="3">
         <v>44286</v>
@@ -12353,7 +12353,7 @@
     </row>
     <row r="244">
       <c r="A244" s="2">
-        <v>44286.625</v>
+        <v>44287.25</v>
       </c>
       <c r="C244" s="3">
         <v>44286</v>
@@ -12401,7 +12401,7 @@
     </row>
     <row r="245">
       <c r="A245" s="2">
-        <v>44286.66666666667</v>
+        <v>44287.29166666667</v>
       </c>
       <c r="C245" s="3">
         <v>44287</v>
@@ -12449,7 +12449,7 @@
     </row>
     <row r="246">
       <c r="A246" s="2">
-        <v>44286.70833333333</v>
+        <v>44287.33333333333</v>
       </c>
       <c r="C246" s="3">
         <v>44287</v>
@@ -12497,7 +12497,7 @@
     </row>
     <row r="247">
       <c r="A247" s="2">
-        <v>44286.75</v>
+        <v>44287.375</v>
       </c>
       <c r="C247" s="3">
         <v>44287</v>
@@ -12545,7 +12545,7 @@
     </row>
     <row r="248">
       <c r="A248" s="2">
-        <v>44286.79166666667</v>
+        <v>44287.41666666667</v>
       </c>
       <c r="C248" s="3">
         <v>44287</v>
@@ -12593,7 +12593,7 @@
     </row>
     <row r="249">
       <c r="A249" s="2">
-        <v>44286.83333333333</v>
+        <v>44287.45833333333</v>
       </c>
       <c r="C249" s="3">
         <v>44287</v>
@@ -12641,7 +12641,7 @@
     </row>
     <row r="250">
       <c r="A250" s="2">
-        <v>44286.875</v>
+        <v>44287.5</v>
       </c>
       <c r="C250" s="3">
         <v>44287</v>
@@ -12689,7 +12689,7 @@
     </row>
     <row r="251">
       <c r="A251" s="2">
-        <v>44287.5</v>
+        <v>44288.125</v>
       </c>
       <c r="C251" s="3">
         <v>44287</v>
@@ -12737,7 +12737,7 @@
     </row>
     <row r="252">
       <c r="A252" s="2">
-        <v>44287.54166666667</v>
+        <v>44288.16666666667</v>
       </c>
       <c r="C252" s="3">
         <v>44287</v>
@@ -12751,7 +12751,7 @@
         <v>4</v>
       </c>
       <c r="F252">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G252">
         <v>2</v>
@@ -12760,19 +12760,19 @@
         <v>8</v>
       </c>
       <c r="I252">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J252">
         <v>15</v>
       </c>
       <c r="K252">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L252">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M252">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N252">
         <v>18</v>
@@ -12785,7 +12785,7 @@
     </row>
     <row r="253">
       <c r="A253" s="2">
-        <v>44287.58333333333</v>
+        <v>44288.20833333333</v>
       </c>
       <c r="C253" s="3">
         <v>44287</v>
@@ -12833,7 +12833,7 @@
     </row>
     <row r="254">
       <c r="A254" s="2">
-        <v>44287.625</v>
+        <v>44288.25</v>
       </c>
       <c r="C254" s="3">
         <v>44287</v>
@@ -12881,7 +12881,7 @@
     </row>
     <row r="255">
       <c r="A255" s="2">
-        <v>44287.66666666667</v>
+        <v>44288.29166666667</v>
       </c>
       <c r="C255" s="3">
         <v>44288</v>
@@ -12929,7 +12929,7 @@
     </row>
     <row r="256">
       <c r="A256" s="2">
-        <v>44287.70833333333</v>
+        <v>44288.33333333333</v>
       </c>
       <c r="C256" s="3">
         <v>44288</v>
@@ -12943,7 +12943,7 @@
         <v>74</v>
       </c>
       <c r="F256">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G256">
         <v>4</v>
@@ -12952,19 +12952,19 @@
         <v>72</v>
       </c>
       <c r="I256">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J256">
         <v>82</v>
       </c>
       <c r="K256">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L256">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M256">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N256">
         <v>10</v>
@@ -12977,7 +12977,7 @@
     </row>
     <row r="257">
       <c r="A257" s="2">
-        <v>44287.75</v>
+        <v>44288.375</v>
       </c>
       <c r="C257" s="3">
         <v>44288</v>
@@ -13025,7 +13025,7 @@
     </row>
     <row r="258">
       <c r="A258" s="2">
-        <v>44287.79166666667</v>
+        <v>44288.41666666667</v>
       </c>
       <c r="C258" s="3">
         <v>44288</v>
@@ -13073,7 +13073,7 @@
     </row>
     <row r="259">
       <c r="A259" s="2">
-        <v>44287.83333333333</v>
+        <v>44288.45833333333</v>
       </c>
       <c r="C259" s="3">
         <v>44288</v>
@@ -13087,7 +13087,7 @@
         <v>8</v>
       </c>
       <c r="F259">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G259">
         <v>2</v>
@@ -13096,19 +13096,19 @@
         <v>6</v>
       </c>
       <c r="I259">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J259">
         <v>10</v>
       </c>
       <c r="K259">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L259">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M259">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N259">
         <v>9</v>
@@ -13121,7 +13121,7 @@
     </row>
     <row r="260">
       <c r="A260" s="2">
-        <v>44287.875</v>
+        <v>44288.5</v>
       </c>
       <c r="C260" s="3">
         <v>44288</v>
@@ -13169,7 +13169,7 @@
     </row>
     <row r="261">
       <c r="A261" s="2">
-        <v>44287.91666666667</v>
+        <v>44288.54166666667</v>
       </c>
       <c r="C261" s="3">
         <v>44288</v>
@@ -13217,7 +13217,7 @@
     </row>
     <row r="262">
       <c r="A262" s="2">
-        <v>44287.95833333333</v>
+        <v>44288.58333333333</v>
       </c>
       <c r="C262" s="3">
         <v>44288</v>
@@ -13231,7 +13231,7 @@
         <v>16</v>
       </c>
       <c r="F262">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G262">
         <v>14</v>
@@ -13240,19 +13240,19 @@
         <v>17</v>
       </c>
       <c r="I262">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J262">
         <v>23</v>
       </c>
       <c r="K262">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L262">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M262">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N262">
         <v>23</v>
@@ -13265,7 +13265,7 @@
     </row>
     <row r="263">
       <c r="A263" s="2">
-        <v>44288</v>
+        <v>44288.625</v>
       </c>
       <c r="C263" s="3">
         <v>44288</v>
@@ -13313,7 +13313,7 @@
     </row>
     <row r="264">
       <c r="A264" s="2">
-        <v>44288.04166666667</v>
+        <v>44288.66666666667</v>
       </c>
       <c r="C264" s="3">
         <v>44288</v>
@@ -13361,7 +13361,7 @@
     </row>
     <row r="265">
       <c r="A265" s="2">
-        <v>44288.08333333333</v>
+        <v>44288.70833333333</v>
       </c>
       <c r="C265" s="3">
         <v>44288</v>
@@ -13409,7 +13409,7 @@
     </row>
     <row r="266">
       <c r="A266" s="2">
-        <v>44288.125</v>
+        <v>44288.75</v>
       </c>
       <c r="C266" s="3">
         <v>44288</v>
@@ -13457,7 +13457,7 @@
     </row>
     <row r="267">
       <c r="A267" s="2">
-        <v>44288.16666666667</v>
+        <v>44288.79166666667</v>
       </c>
       <c r="C267" s="3">
         <v>44288</v>
@@ -13505,7 +13505,7 @@
     </row>
     <row r="268">
       <c r="A268" s="2">
-        <v>44288.20833333333</v>
+        <v>44288.83333333333</v>
       </c>
       <c r="C268" s="3">
         <v>44288</v>
@@ -13553,7 +13553,7 @@
     </row>
     <row r="269">
       <c r="A269" s="2">
-        <v>44288.25</v>
+        <v>44288.875</v>
       </c>
       <c r="C269" s="3">
         <v>44288</v>
@@ -13601,7 +13601,7 @@
     </row>
     <row r="270">
       <c r="A270" s="2">
-        <v>44288.29166666667</v>
+        <v>44288.91666666667</v>
       </c>
       <c r="C270" s="3">
         <v>44288</v>
@@ -13649,7 +13649,7 @@
     </row>
     <row r="271">
       <c r="A271" s="2">
-        <v>44288.33333333333</v>
+        <v>44288.95833333333</v>
       </c>
       <c r="C271" s="3">
         <v>44288</v>
@@ -13697,7 +13697,7 @@
     </row>
     <row r="272">
       <c r="A272" s="2">
-        <v>44288.375</v>
+        <v>44289</v>
       </c>
       <c r="C272" s="3">
         <v>44288</v>
@@ -13745,7 +13745,7 @@
     </row>
     <row r="273">
       <c r="A273" s="2">
-        <v>44288.41666666667</v>
+        <v>44289.04166666667</v>
       </c>
       <c r="C273" s="3">
         <v>44288</v>
@@ -13793,7 +13793,7 @@
     </row>
     <row r="274">
       <c r="A274" s="2">
-        <v>44288.45833333333</v>
+        <v>44289.08333333333</v>
       </c>
       <c r="C274" s="3">
         <v>44288</v>
@@ -13841,7 +13841,7 @@
     </row>
     <row r="275">
       <c r="A275" s="2">
-        <v>44288.5</v>
+        <v>44289.125</v>
       </c>
       <c r="C275" s="3">
         <v>44288</v>
@@ -13889,7 +13889,7 @@
     </row>
     <row r="276">
       <c r="A276" s="2">
-        <v>44288.54166666667</v>
+        <v>44289.16666666667</v>
       </c>
       <c r="C276" s="3">
         <v>44288</v>
@@ -13937,7 +13937,7 @@
     </row>
     <row r="277">
       <c r="A277" s="2">
-        <v>44288.58333333333</v>
+        <v>44289.20833333333</v>
       </c>
       <c r="C277" s="3">
         <v>44288</v>
@@ -13985,7 +13985,7 @@
     </row>
     <row r="278">
       <c r="A278" s="2">
-        <v>44288.625</v>
+        <v>44289.25</v>
       </c>
       <c r="C278" s="3">
         <v>44288</v>
@@ -14033,7 +14033,7 @@
     </row>
     <row r="279">
       <c r="A279" s="2">
-        <v>44288.66666666667</v>
+        <v>44289.29166666667</v>
       </c>
       <c r="C279" s="3">
         <v>44289</v>
@@ -14081,7 +14081,7 @@
     </row>
     <row r="280">
       <c r="A280" s="2">
-        <v>44288.70833333333</v>
+        <v>44289.33333333333</v>
       </c>
       <c r="C280" s="3">
         <v>44289</v>
@@ -14129,7 +14129,7 @@
     </row>
     <row r="281">
       <c r="A281" s="2">
-        <v>44288.75</v>
+        <v>44289.375</v>
       </c>
       <c r="C281" s="3">
         <v>44289</v>
@@ -14177,7 +14177,7 @@
     </row>
     <row r="282">
       <c r="A282" s="2">
-        <v>44288.79166666667</v>
+        <v>44289.41666666667</v>
       </c>
       <c r="C282" s="3">
         <v>44289</v>
@@ -14225,7 +14225,7 @@
     </row>
     <row r="283">
       <c r="A283" s="2">
-        <v>44288.83333333333</v>
+        <v>44289.45833333333</v>
       </c>
       <c r="C283" s="3">
         <v>44289</v>
@@ -14273,7 +14273,7 @@
     </row>
     <row r="284">
       <c r="A284" s="2">
-        <v>44288.875</v>
+        <v>44289.5</v>
       </c>
       <c r="C284" s="3">
         <v>44289</v>
@@ -14321,7 +14321,7 @@
     </row>
     <row r="285">
       <c r="A285" s="2">
-        <v>44288.91666666667</v>
+        <v>44289.54166666667</v>
       </c>
       <c r="C285" s="3">
         <v>44289</v>
@@ -14369,7 +14369,7 @@
     </row>
     <row r="286">
       <c r="A286" s="2">
-        <v>44288.95833333333</v>
+        <v>44289.58333333333</v>
       </c>
       <c r="C286" s="3">
         <v>44289</v>
@@ -14417,7 +14417,7 @@
     </row>
     <row r="287">
       <c r="A287" s="2">
-        <v>44289</v>
+        <v>44289.625</v>
       </c>
       <c r="C287" s="3">
         <v>44289</v>
@@ -14465,7 +14465,7 @@
     </row>
     <row r="288">
       <c r="A288" s="2">
-        <v>44289.04166666667</v>
+        <v>44289.66666666667</v>
       </c>
       <c r="C288" s="3">
         <v>44289</v>
@@ -14513,7 +14513,7 @@
     </row>
     <row r="289">
       <c r="A289" s="2">
-        <v>44289.08333333333</v>
+        <v>44289.70833333333</v>
       </c>
       <c r="C289" s="3">
         <v>44289</v>
@@ -14561,7 +14561,7 @@
     </row>
     <row r="290">
       <c r="A290" s="2">
-        <v>44289.125</v>
+        <v>44289.75</v>
       </c>
       <c r="C290" s="3">
         <v>44289</v>
@@ -14609,7 +14609,7 @@
     </row>
     <row r="291">
       <c r="A291" s="2">
-        <v>44289.16666666667</v>
+        <v>44289.79166666667</v>
       </c>
       <c r="C291" s="3">
         <v>44289</v>
@@ -14657,7 +14657,7 @@
     </row>
     <row r="292">
       <c r="A292" s="2">
-        <v>44289.20833333333</v>
+        <v>44289.83333333333</v>
       </c>
       <c r="C292" s="3">
         <v>44289</v>
@@ -14705,7 +14705,7 @@
     </row>
     <row r="293">
       <c r="A293" s="2">
-        <v>44289.25</v>
+        <v>44289.875</v>
       </c>
       <c r="C293" s="3">
         <v>44289</v>
@@ -14753,7 +14753,7 @@
     </row>
     <row r="294">
       <c r="A294" s="2">
-        <v>44289.29166666667</v>
+        <v>44289.91666666667</v>
       </c>
       <c r="C294" s="3">
         <v>44289</v>
@@ -14801,7 +14801,7 @@
     </row>
     <row r="295">
       <c r="A295" s="2">
-        <v>44289.33333333333</v>
+        <v>44289.95833333333</v>
       </c>
       <c r="C295" s="3">
         <v>44289</v>
@@ -14849,7 +14849,7 @@
     </row>
     <row r="296">
       <c r="A296" s="2">
-        <v>44289.375</v>
+        <v>44290</v>
       </c>
       <c r="C296" s="3">
         <v>44289</v>
@@ -14860,13 +14860,13 @@
         </is>
       </c>
       <c r="E296">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F296">
         <v>20</v>
       </c>
       <c r="G296">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H296">
         <v>30</v>
@@ -14875,7 +14875,7 @@
         <v>13</v>
       </c>
       <c r="J296">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K296">
         <v>38</v>
@@ -14897,7 +14897,7 @@
     </row>
     <row r="297">
       <c r="A297" s="2">
-        <v>44289.41666666667</v>
+        <v>44290.04166666667</v>
       </c>
       <c r="C297" s="3">
         <v>44289</v>
@@ -14945,7 +14945,7 @@
     </row>
     <row r="298">
       <c r="A298" s="2">
-        <v>44289.45833333333</v>
+        <v>44290.08333333333</v>
       </c>
       <c r="C298" s="3">
         <v>44289</v>
@@ -14993,7 +14993,7 @@
     </row>
     <row r="299">
       <c r="A299" s="2">
-        <v>44289.5</v>
+        <v>44290.125</v>
       </c>
       <c r="C299" s="3">
         <v>44289</v>
@@ -15041,7 +15041,7 @@
     </row>
     <row r="300">
       <c r="A300" s="2">
-        <v>44289.54166666667</v>
+        <v>44290.16666666667</v>
       </c>
       <c r="C300" s="3">
         <v>44289</v>
@@ -15089,7 +15089,7 @@
     </row>
     <row r="301">
       <c r="A301" s="2">
-        <v>44289.58333333333</v>
+        <v>44290.20833333333</v>
       </c>
       <c r="C301" s="3">
         <v>44289</v>
@@ -15137,7 +15137,7 @@
     </row>
     <row r="302">
       <c r="A302" s="2">
-        <v>44289.625</v>
+        <v>44290.25</v>
       </c>
       <c r="C302" s="3">
         <v>44289</v>
@@ -15185,7 +15185,7 @@
     </row>
     <row r="303">
       <c r="A303" s="2">
-        <v>44289.66666666667</v>
+        <v>44290.29166666667</v>
       </c>
       <c r="C303" s="3">
         <v>44290</v>
@@ -15233,7 +15233,7 @@
     </row>
     <row r="304">
       <c r="A304" s="2">
-        <v>44289.70833333333</v>
+        <v>44290.33333333333</v>
       </c>
       <c r="C304" s="3">
         <v>44290</v>
@@ -15281,7 +15281,7 @@
     </row>
     <row r="305">
       <c r="A305" s="2">
-        <v>44289.75</v>
+        <v>44290.375</v>
       </c>
       <c r="C305" s="3">
         <v>44290</v>
@@ -15329,7 +15329,7 @@
     </row>
     <row r="306">
       <c r="A306" s="2">
-        <v>44289.79166666667</v>
+        <v>44290.41666666667</v>
       </c>
       <c r="C306" s="3">
         <v>44290</v>
@@ -15377,7 +15377,7 @@
     </row>
     <row r="307">
       <c r="A307" s="2">
-        <v>44289.83333333333</v>
+        <v>44290.45833333333</v>
       </c>
       <c r="C307" s="3">
         <v>44290</v>
@@ -15425,7 +15425,7 @@
     </row>
     <row r="308">
       <c r="A308" s="2">
-        <v>44289.875</v>
+        <v>44290.5</v>
       </c>
       <c r="C308" s="3">
         <v>44290</v>
@@ -15473,7 +15473,7 @@
     </row>
     <row r="309">
       <c r="A309" s="2">
-        <v>44289.91666666667</v>
+        <v>44290.54166666667</v>
       </c>
       <c r="C309" s="3">
         <v>44290</v>
@@ -15521,7 +15521,7 @@
     </row>
     <row r="310">
       <c r="A310" s="2">
-        <v>44289.95833333333</v>
+        <v>44290.58333333333</v>
       </c>
       <c r="C310" s="3">
         <v>44290</v>
@@ -15569,7 +15569,7 @@
     </row>
     <row r="311">
       <c r="A311" s="2">
-        <v>44290</v>
+        <v>44290.625</v>
       </c>
       <c r="C311" s="3">
         <v>44290</v>
@@ -15617,7 +15617,7 @@
     </row>
     <row r="312">
       <c r="A312" s="2">
-        <v>44290.04166666667</v>
+        <v>44290.66666666667</v>
       </c>
       <c r="C312" s="3">
         <v>44290</v>
@@ -15665,7 +15665,7 @@
     </row>
     <row r="313">
       <c r="A313" s="2">
-        <v>44290.08333333333</v>
+        <v>44290.70833333333</v>
       </c>
       <c r="C313" s="3">
         <v>44290</v>
@@ -15713,7 +15713,7 @@
     </row>
     <row r="314">
       <c r="A314" s="2">
-        <v>44290.125</v>
+        <v>44290.75</v>
       </c>
       <c r="C314" s="3">
         <v>44290</v>
@@ -15761,7 +15761,7 @@
     </row>
     <row r="315">
       <c r="A315" s="2">
-        <v>44290.16666666667</v>
+        <v>44290.79166666667</v>
       </c>
       <c r="C315" s="3">
         <v>44290</v>
@@ -15809,7 +15809,7 @@
     </row>
     <row r="316">
       <c r="A316" s="2">
-        <v>44290.20833333333</v>
+        <v>44290.83333333333</v>
       </c>
       <c r="C316" s="3">
         <v>44290</v>
@@ -15857,7 +15857,7 @@
     </row>
     <row r="317">
       <c r="A317" s="2">
-        <v>44290.25</v>
+        <v>44290.875</v>
       </c>
       <c r="C317" s="3">
         <v>44290</v>
@@ -15905,7 +15905,7 @@
     </row>
     <row r="318">
       <c r="A318" s="2">
-        <v>44290.29166666667</v>
+        <v>44290.91666666667</v>
       </c>
       <c r="C318" s="3">
         <v>44290</v>
@@ -15953,7 +15953,7 @@
     </row>
     <row r="319">
       <c r="A319" s="2">
-        <v>44290.33333333333</v>
+        <v>44290.95833333333</v>
       </c>
       <c r="C319" s="3">
         <v>44290</v>
@@ -16001,7 +16001,7 @@
     </row>
     <row r="320">
       <c r="A320" s="2">
-        <v>44290.375</v>
+        <v>44291</v>
       </c>
       <c r="C320" s="3">
         <v>44290</v>
@@ -16049,7 +16049,7 @@
     </row>
     <row r="321">
       <c r="A321" s="2">
-        <v>44290.41666666667</v>
+        <v>44291.04166666667</v>
       </c>
       <c r="C321" s="3">
         <v>44290</v>
@@ -16097,7 +16097,7 @@
     </row>
     <row r="322">
       <c r="A322" s="2">
-        <v>44290.45833333333</v>
+        <v>44291.08333333333</v>
       </c>
       <c r="C322" s="3">
         <v>44290</v>
@@ -16145,7 +16145,7 @@
     </row>
     <row r="323">
       <c r="A323" s="2">
-        <v>44290.5</v>
+        <v>44291.125</v>
       </c>
       <c r="C323" s="3">
         <v>44290</v>
@@ -16193,7 +16193,7 @@
     </row>
     <row r="324">
       <c r="A324" s="2">
-        <v>44290.54166666667</v>
+        <v>44291.16666666667</v>
       </c>
       <c r="C324" s="3">
         <v>44290</v>
@@ -16241,7 +16241,7 @@
     </row>
     <row r="325">
       <c r="A325" s="2">
-        <v>44290.58333333333</v>
+        <v>44291.20833333333</v>
       </c>
       <c r="C325" s="3">
         <v>44290</v>
@@ -16289,7 +16289,7 @@
     </row>
     <row r="326">
       <c r="A326" s="2">
-        <v>44290.625</v>
+        <v>44291.25</v>
       </c>
       <c r="C326" s="3">
         <v>44290</v>
@@ -16337,7 +16337,7 @@
     </row>
     <row r="327">
       <c r="A327" s="2">
-        <v>44290.66666666667</v>
+        <v>44291.29166666667</v>
       </c>
       <c r="C327" s="3">
         <v>44291</v>
@@ -16385,7 +16385,7 @@
     </row>
     <row r="328">
       <c r="A328" s="2">
-        <v>44290.70833333333</v>
+        <v>44291.33333333333</v>
       </c>
       <c r="C328" s="3">
         <v>44291</v>
@@ -16433,7 +16433,7 @@
     </row>
     <row r="329">
       <c r="A329" s="2">
-        <v>44290.75</v>
+        <v>44291.375</v>
       </c>
       <c r="C329" s="3">
         <v>44291</v>
@@ -16481,7 +16481,7 @@
     </row>
     <row r="330">
       <c r="A330" s="2">
-        <v>44290.79166666667</v>
+        <v>44291.41666666667</v>
       </c>
       <c r="C330" s="3">
         <v>44291</v>
@@ -16529,7 +16529,7 @@
     </row>
     <row r="331">
       <c r="A331" s="2">
-        <v>44290.83333333333</v>
+        <v>44291.45833333333</v>
       </c>
       <c r="C331" s="3">
         <v>44291</v>
@@ -16577,7 +16577,7 @@
     </row>
     <row r="332">
       <c r="A332" s="2">
-        <v>44290.875</v>
+        <v>44291.5</v>
       </c>
       <c r="C332" s="3">
         <v>44291</v>
@@ -16625,7 +16625,7 @@
     </row>
     <row r="333">
       <c r="A333" s="2">
-        <v>44291.5</v>
+        <v>44292.125</v>
       </c>
       <c r="C333" s="3">
         <v>44291</v>
@@ -16673,7 +16673,7 @@
     </row>
     <row r="334">
       <c r="A334" s="2">
-        <v>44291.54166666667</v>
+        <v>44292.16666666667</v>
       </c>
       <c r="C334" s="3">
         <v>44291</v>
@@ -16721,7 +16721,7 @@
     </row>
     <row r="335">
       <c r="A335" s="2">
-        <v>44291.58333333333</v>
+        <v>44292.20833333333</v>
       </c>
       <c r="C335" s="3">
         <v>44291</v>
@@ -16769,7 +16769,7 @@
     </row>
     <row r="336">
       <c r="A336" s="2">
-        <v>44291.625</v>
+        <v>44292.25</v>
       </c>
       <c r="C336" s="3">
         <v>44291</v>
@@ -16817,7 +16817,7 @@
     </row>
     <row r="337">
       <c r="A337" s="2">
-        <v>44291.66666666667</v>
+        <v>44292.29166666667</v>
       </c>
       <c r="C337" s="3">
         <v>44292</v>
@@ -16865,7 +16865,7 @@
     </row>
     <row r="338">
       <c r="A338" s="2">
-        <v>44291.70833333333</v>
+        <v>44292.33333333333</v>
       </c>
       <c r="C338" s="3">
         <v>44292</v>
@@ -16913,7 +16913,7 @@
     </row>
     <row r="339">
       <c r="A339" s="2">
-        <v>44291.75</v>
+        <v>44292.375</v>
       </c>
       <c r="C339" s="3">
         <v>44292</v>
@@ -16961,7 +16961,7 @@
     </row>
     <row r="340">
       <c r="A340" s="2">
-        <v>44291.79166666667</v>
+        <v>44292.41666666667</v>
       </c>
       <c r="C340" s="3">
         <v>44292</v>
@@ -17009,7 +17009,7 @@
     </row>
     <row r="341">
       <c r="A341" s="2">
-        <v>44291.875</v>
+        <v>44292.5</v>
       </c>
       <c r="C341" s="3">
         <v>44292</v>
@@ -17057,7 +17057,7 @@
     </row>
     <row r="342">
       <c r="A342" s="2">
-        <v>44292.41666666667</v>
+        <v>44293.04166666667</v>
       </c>
       <c r="C342" s="3">
         <v>44292</v>
@@ -17105,7 +17105,7 @@
     </row>
     <row r="343">
       <c r="A343" s="2">
-        <v>44292.5</v>
+        <v>44293.125</v>
       </c>
       <c r="C343" s="3">
         <v>44292</v>
@@ -17153,7 +17153,7 @@
     </row>
     <row r="344">
       <c r="A344" s="2">
-        <v>44292.54166666667</v>
+        <v>44293.16666666667</v>
       </c>
       <c r="C344" s="3">
         <v>44292</v>
@@ -17201,7 +17201,7 @@
     </row>
     <row r="345">
       <c r="A345" s="2">
-        <v>44292.58333333333</v>
+        <v>44293.20833333333</v>
       </c>
       <c r="C345" s="3">
         <v>44292</v>
@@ -17249,7 +17249,7 @@
     </row>
     <row r="346">
       <c r="A346" s="2">
-        <v>44292.625</v>
+        <v>44293.25</v>
       </c>
       <c r="C346" s="3">
         <v>44292</v>
@@ -17297,7 +17297,7 @@
     </row>
     <row r="347">
       <c r="A347" s="2">
-        <v>44292.66666666667</v>
+        <v>44293.29166666667</v>
       </c>
       <c r="C347" s="3">
         <v>44293</v>
@@ -17345,7 +17345,7 @@
     </row>
     <row r="348">
       <c r="A348" s="2">
-        <v>44292.70833333333</v>
+        <v>44293.33333333333</v>
       </c>
       <c r="C348" s="3">
         <v>44293</v>
@@ -17393,7 +17393,7 @@
     </row>
     <row r="349">
       <c r="A349" s="2">
-        <v>44292.75</v>
+        <v>44293.375</v>
       </c>
       <c r="C349" s="3">
         <v>44293</v>
@@ -17441,7 +17441,7 @@
     </row>
     <row r="350">
       <c r="A350" s="2">
-        <v>44292.79166666667</v>
+        <v>44293.41666666667</v>
       </c>
       <c r="C350" s="3">
         <v>44293</v>
@@ -17489,7 +17489,7 @@
     </row>
     <row r="351">
       <c r="A351" s="2">
-        <v>44292.83333333333</v>
+        <v>44293.45833333333</v>
       </c>
       <c r="C351" s="3">
         <v>44293</v>
@@ -17537,7 +17537,7 @@
     </row>
     <row r="352">
       <c r="A352" s="2">
-        <v>44292.875</v>
+        <v>44293.5</v>
       </c>
       <c r="C352" s="3">
         <v>44293</v>
@@ -17585,7 +17585,7 @@
     </row>
     <row r="353">
       <c r="A353" s="2">
-        <v>44292.95833333333</v>
+        <v>44293.58333333333</v>
       </c>
       <c r="C353" s="3">
         <v>44293</v>
@@ -17633,7 +17633,7 @@
     </row>
     <row r="354">
       <c r="A354" s="2">
-        <v>44293.41666666667</v>
+        <v>44294.04166666667</v>
       </c>
       <c r="C354" s="3">
         <v>44293</v>
@@ -17681,7 +17681,7 @@
     </row>
     <row r="355">
       <c r="A355" s="2">
-        <v>44293.5</v>
+        <v>44294.125</v>
       </c>
       <c r="C355" s="3">
         <v>44293</v>
@@ -17729,7 +17729,7 @@
     </row>
     <row r="356">
       <c r="A356" s="2">
-        <v>44293.54166666667</v>
+        <v>44294.16666666667</v>
       </c>
       <c r="C356" s="3">
         <v>44293</v>
@@ -17777,7 +17777,7 @@
     </row>
     <row r="357">
       <c r="A357" s="2">
-        <v>44293.58333333333</v>
+        <v>44294.20833333333</v>
       </c>
       <c r="C357" s="3">
         <v>44293</v>
@@ -17825,7 +17825,7 @@
     </row>
     <row r="358">
       <c r="A358" s="2">
-        <v>44293.625</v>
+        <v>44294.25</v>
       </c>
       <c r="C358" s="3">
         <v>44293</v>
@@ -17873,7 +17873,7 @@
     </row>
     <row r="359">
       <c r="A359" s="2">
-        <v>44293.66666666667</v>
+        <v>44294.29166666667</v>
       </c>
       <c r="C359" s="3">
         <v>44294</v>
@@ -17921,7 +17921,7 @@
     </row>
     <row r="360">
       <c r="A360" s="2">
-        <v>44293.70833333333</v>
+        <v>44294.33333333333</v>
       </c>
       <c r="C360" s="3">
         <v>44294</v>
@@ -17969,7 +17969,7 @@
     </row>
     <row r="361">
       <c r="A361" s="2">
-        <v>44293.75</v>
+        <v>44294.375</v>
       </c>
       <c r="C361" s="3">
         <v>44294</v>
@@ -18017,7 +18017,7 @@
     </row>
     <row r="362">
       <c r="A362" s="2">
-        <v>44293.79166666667</v>
+        <v>44294.41666666667</v>
       </c>
       <c r="C362" s="3">
         <v>44294</v>
@@ -18065,7 +18065,7 @@
     </row>
     <row r="363">
       <c r="A363" s="2">
-        <v>44293.83333333333</v>
+        <v>44294.45833333333</v>
       </c>
       <c r="C363" s="3">
         <v>44294</v>
@@ -18113,7 +18113,7 @@
     </row>
     <row r="364">
       <c r="A364" s="2">
-        <v>44294.5</v>
+        <v>44295.125</v>
       </c>
       <c r="C364" s="3">
         <v>44294</v>
@@ -18161,7 +18161,7 @@
     </row>
     <row r="365">
       <c r="A365" s="2">
-        <v>44294.54166666667</v>
+        <v>44295.16666666667</v>
       </c>
       <c r="C365" s="3">
         <v>44294</v>
@@ -18209,7 +18209,7 @@
     </row>
     <row r="366">
       <c r="A366" s="2">
-        <v>44294.58333333333</v>
+        <v>44295.20833333333</v>
       </c>
       <c r="C366" s="3">
         <v>44294</v>
@@ -18257,7 +18257,7 @@
     </row>
     <row r="367">
       <c r="A367" s="2">
-        <v>44294.625</v>
+        <v>44295.25</v>
       </c>
       <c r="C367" s="3">
         <v>44294</v>
@@ -18305,7 +18305,7 @@
     </row>
     <row r="368">
       <c r="A368" s="2">
-        <v>44294.66666666667</v>
+        <v>44295.29166666667</v>
       </c>
       <c r="C368" s="3">
         <v>44295</v>
@@ -18353,7 +18353,7 @@
     </row>
     <row r="369">
       <c r="A369" s="2">
-        <v>44294.70833333333</v>
+        <v>44295.33333333333</v>
       </c>
       <c r="C369" s="3">
         <v>44295</v>
@@ -18401,7 +18401,7 @@
     </row>
     <row r="370">
       <c r="A370" s="2">
-        <v>44294.75</v>
+        <v>44295.375</v>
       </c>
       <c r="C370" s="3">
         <v>44295</v>
@@ -18449,7 +18449,7 @@
     </row>
     <row r="371">
       <c r="A371" s="2">
-        <v>44294.79166666667</v>
+        <v>44295.41666666667</v>
       </c>
       <c r="C371" s="3">
         <v>44295</v>
@@ -18497,7 +18497,7 @@
     </row>
     <row r="372">
       <c r="A372" s="2">
-        <v>44294.83333333333</v>
+        <v>44295.45833333333</v>
       </c>
       <c r="C372" s="3">
         <v>44295</v>
@@ -18545,7 +18545,7 @@
     </row>
     <row r="373">
       <c r="A373" s="2">
-        <v>44294.875</v>
+        <v>44295.5</v>
       </c>
       <c r="C373" s="3">
         <v>44295</v>
@@ -18593,7 +18593,7 @@
     </row>
     <row r="374">
       <c r="A374" s="2">
-        <v>44295.41666666667</v>
+        <v>44296.04166666667</v>
       </c>
       <c r="C374" s="3">
         <v>44295</v>
@@ -18641,7 +18641,7 @@
     </row>
     <row r="375">
       <c r="A375" s="2">
-        <v>44295.5</v>
+        <v>44296.125</v>
       </c>
       <c r="C375" s="3">
         <v>44295</v>
@@ -18689,7 +18689,7 @@
     </row>
     <row r="376">
       <c r="A376" s="2">
-        <v>44295.54166666667</v>
+        <v>44296.16666666667</v>
       </c>
       <c r="C376" s="3">
         <v>44295</v>
@@ -18737,7 +18737,7 @@
     </row>
     <row r="377">
       <c r="A377" s="2">
-        <v>44295.58333333333</v>
+        <v>44296.20833333333</v>
       </c>
       <c r="C377" s="3">
         <v>44295</v>
@@ -18785,7 +18785,7 @@
     </row>
     <row r="378">
       <c r="A378" s="2">
-        <v>44295.625</v>
+        <v>44296.25</v>
       </c>
       <c r="C378" s="3">
         <v>44295</v>
@@ -18833,7 +18833,7 @@
     </row>
     <row r="379">
       <c r="A379" s="2">
-        <v>44295.66666666667</v>
+        <v>44296.29166666667</v>
       </c>
       <c r="C379" s="3">
         <v>44296</v>
@@ -18881,7 +18881,7 @@
     </row>
     <row r="380">
       <c r="A380" s="2">
-        <v>44295.70833333333</v>
+        <v>44296.33333333333</v>
       </c>
       <c r="C380" s="3">
         <v>44296</v>
@@ -18929,7 +18929,7 @@
     </row>
     <row r="381">
       <c r="A381" s="2">
-        <v>44295.75</v>
+        <v>44296.375</v>
       </c>
       <c r="C381" s="3">
         <v>44296</v>
@@ -18977,7 +18977,7 @@
     </row>
     <row r="382">
       <c r="A382" s="2">
-        <v>44295.79166666667</v>
+        <v>44296.41666666667</v>
       </c>
       <c r="C382" s="3">
         <v>44296</v>
@@ -19025,7 +19025,7 @@
     </row>
     <row r="383">
       <c r="A383" s="2">
-        <v>44295.83333333333</v>
+        <v>44296.45833333333</v>
       </c>
       <c r="C383" s="3">
         <v>44296</v>
